--- a/reference_for_earnings/earnings_page.xlsx
+++ b/reference_for_earnings/earnings_page.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ft/Documents/Tecky/stonks2.0/refernce_for_earnings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ft/Documents/Tecky/stonks2.0/reference_for_earnings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B6AD84-DC49-D34F-A8AB-C1DDEC81140C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E98449-FFCB-5241-AE5A-4A050DEB9FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{951900C3-487F-AE42-8EE1-A20C6DC3A600}"/>
   </bookViews>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>Lennar Corp Cl A</t>
-  </si>
-  <si>
-    <t>Earnings Releases in the last 10 days:</t>
   </si>
   <si>
     <t>ORCL</t>
@@ -182,6 +179,9 @@
   </si>
   <si>
     <t>Upcoming Earning Releases in the next 10 days:</t>
+  </si>
+  <si>
+    <t>Earnings Releases in the past 10 days:</t>
   </si>
 </sst>
 </file>
@@ -47973,7 +47973,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
@@ -48557,7 +48557,7 @@
     </row>
     <row r="6" spans="1:11" ht="15">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16">
@@ -48597,10 +48597,10 @@
         <v>44630</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>2022</v>
@@ -48634,10 +48634,10 @@
         <v>44629</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <v>2022</v>
@@ -48671,10 +48671,10 @@
         <v>44623</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11">
         <v>2022</v>
@@ -48708,10 +48708,10 @@
         <v>44623</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <v>2022</v>
@@ -48745,10 +48745,10 @@
         <v>44623</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13">
         <v>2022</v>
@@ -48782,10 +48782,10 @@
         <v>44623</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14">
         <v>2022</v>
@@ -48819,10 +48819,10 @@
         <v>44623</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15">
         <v>2022</v>
@@ -48853,7 +48853,7 @@
     </row>
     <row r="17" spans="1:11" ht="15">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -48896,10 +48896,10 @@
         <v>44637</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20">
         <v>2022</v>
@@ -48921,10 +48921,10 @@
         <v>44637</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21">
         <v>2022</v>
@@ -48946,10 +48946,10 @@
         <v>44637</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22">
         <v>2021</v>
@@ -48971,10 +48971,10 @@
         <v>44641</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23">
         <v>2022</v>
@@ -48996,10 +48996,10 @@
         <v>44642</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24">
         <v>2022</v>
@@ -49021,10 +49021,10 @@
         <v>44643</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25">
         <v>2022</v>
@@ -49046,10 +49046,10 @@
         <v>44643</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26">
         <v>2022</v>
@@ -49071,10 +49071,10 @@
         <v>44644</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27">
         <v>2022</v>
@@ -49094,10 +49094,10 @@
         <v>44644</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28">
         <v>2022</v>

--- a/reference_for_earnings/earnings_page.xlsx
+++ b/reference_for_earnings/earnings_page.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ft/Documents/Tecky/stonks2.0/reference_for_earnings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E98449-FFCB-5241-AE5A-4A050DEB9FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D713D2-780D-7540-B859-C391B221EA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{951900C3-487F-AE42-8EE1-A20C6DC3A600}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17700" xr2:uid="{951900C3-487F-AE42-8EE1-A20C6DC3A600}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t>Today's Earnings Releases:</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>Earnings Releases in the past 10 days:</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
@@ -47973,7 +47976,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12"/>
@@ -48501,6 +48504,9 @@
       <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="16">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -48561,6 +48567,9 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -48860,6 +48869,9 @@
       <c r="D17" s="1"/>
     </row>
     <row r="19" spans="1:11" ht="16">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
       <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
